--- a/Code/Results/Cases/Case_3_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01450224431521</v>
+        <v>1.062627701646876</v>
       </c>
       <c r="D2">
-        <v>1.030700653383715</v>
+        <v>1.061933525267731</v>
       </c>
       <c r="E2">
-        <v>1.027526982282251</v>
+        <v>1.067255964106053</v>
       </c>
       <c r="F2">
-        <v>1.036262993268362</v>
+        <v>1.075901316290951</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046920836767498</v>
+        <v>1.041617312011347</v>
       </c>
       <c r="J2">
-        <v>1.036257681846665</v>
+        <v>1.067597248363691</v>
       </c>
       <c r="K2">
-        <v>1.041748227436663</v>
+        <v>1.06465624103064</v>
       </c>
       <c r="L2">
-        <v>1.038615693778731</v>
+        <v>1.069964315849649</v>
       </c>
       <c r="M2">
-        <v>1.047239227084244</v>
+        <v>1.07858666363622</v>
       </c>
       <c r="N2">
-        <v>1.03772928661534</v>
+        <v>1.069113358911484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021947499747156</v>
+        <v>1.064136275271315</v>
       </c>
       <c r="D3">
-        <v>1.036275547940559</v>
+        <v>1.063072374536812</v>
       </c>
       <c r="E3">
-        <v>1.033821386953238</v>
+        <v>1.068576752876452</v>
       </c>
       <c r="F3">
-        <v>1.042701421972645</v>
+        <v>1.077254018091754</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048838356211135</v>
+        <v>1.041919283356742</v>
       </c>
       <c r="J3">
-        <v>1.041857223938024</v>
+        <v>1.068757670267288</v>
       </c>
       <c r="K3">
-        <v>1.046464398055429</v>
+        <v>1.065608992134299</v>
       </c>
       <c r="L3">
-        <v>1.044039059967025</v>
+        <v>1.071099597479117</v>
       </c>
       <c r="M3">
-        <v>1.052815597416098</v>
+        <v>1.079755458041245</v>
       </c>
       <c r="N3">
-        <v>1.043336780698711</v>
+        <v>1.070275428747286</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026627352147115</v>
+        <v>1.065111420953603</v>
       </c>
       <c r="D4">
-        <v>1.039782216199823</v>
+        <v>1.063808188716142</v>
       </c>
       <c r="E4">
-        <v>1.037784063314324</v>
+        <v>1.069430712599303</v>
       </c>
       <c r="F4">
-        <v>1.046755249828262</v>
+        <v>1.078128636270939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050031162798484</v>
+        <v>1.042112836090472</v>
       </c>
       <c r="J4">
-        <v>1.045373610754679</v>
+        <v>1.069507113538781</v>
       </c>
       <c r="K4">
-        <v>1.049423091166975</v>
+        <v>1.066223805368483</v>
       </c>
       <c r="L4">
-        <v>1.047446891099981</v>
+        <v>1.07183297391463</v>
       </c>
       <c r="M4">
-        <v>1.056320320257256</v>
+        <v>1.080510531494961</v>
       </c>
       <c r="N4">
-        <v>1.046858161187979</v>
+        <v>1.071025936314186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02856358913194</v>
+        <v>1.065521138650251</v>
       </c>
       <c r="D5">
-        <v>1.041233535357483</v>
+        <v>1.064117266121378</v>
       </c>
       <c r="E5">
-        <v>1.039424971574394</v>
+        <v>1.069789559413892</v>
       </c>
       <c r="F5">
-        <v>1.048434008595691</v>
+        <v>1.078496169956237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050521611196964</v>
+        <v>1.042193765800931</v>
       </c>
       <c r="J5">
-        <v>1.046827612201598</v>
+        <v>1.069821842388204</v>
       </c>
       <c r="K5">
-        <v>1.050645750463627</v>
+        <v>1.066481874192876</v>
       </c>
       <c r="L5">
-        <v>1.04885649242815</v>
+        <v>1.072140996001857</v>
       </c>
       <c r="M5">
-        <v>1.057770168575044</v>
+        <v>1.080827677869135</v>
       </c>
       <c r="N5">
-        <v>1.04831422748373</v>
+        <v>1.071341112114675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028886913461489</v>
+        <v>1.065589918544795</v>
       </c>
       <c r="D6">
-        <v>1.041475909838701</v>
+        <v>1.064169146508781</v>
       </c>
       <c r="E6">
-        <v>1.039699059538218</v>
+        <v>1.069849802252202</v>
       </c>
       <c r="F6">
-        <v>1.048714424826058</v>
+        <v>1.078557871478869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050603327227911</v>
+        <v>1.042207328500662</v>
       </c>
       <c r="J6">
-        <v>1.047070357162555</v>
+        <v>1.0698746671122</v>
       </c>
       <c r="K6">
-        <v>1.050849828583091</v>
+        <v>1.066525181811914</v>
       </c>
       <c r="L6">
-        <v>1.049091853117504</v>
+        <v>1.072192697421834</v>
       </c>
       <c r="M6">
-        <v>1.058012258936182</v>
+        <v>1.080880911464336</v>
       </c>
       <c r="N6">
-        <v>1.048557317170375</v>
+        <v>1.071394011855839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026653344457558</v>
+        <v>1.065116896531258</v>
       </c>
       <c r="D7">
-        <v>1.039801697180677</v>
+        <v>1.063812319635998</v>
       </c>
       <c r="E7">
-        <v>1.037806085693388</v>
+        <v>1.069435508142456</v>
       </c>
       <c r="F7">
-        <v>1.046777779788235</v>
+        <v>1.078133547880408</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050037758847076</v>
+        <v>1.042113919203919</v>
       </c>
       <c r="J7">
-        <v>1.045393132980593</v>
+        <v>1.069511320279969</v>
       </c>
       <c r="K7">
-        <v>1.04943951023235</v>
+        <v>1.06622725525871</v>
       </c>
       <c r="L7">
-        <v>1.047465815273166</v>
+        <v>1.071837090852523</v>
       </c>
       <c r="M7">
-        <v>1.056339784098669</v>
+        <v>1.080514770340801</v>
       </c>
       <c r="N7">
-        <v>1.046877711137693</v>
+        <v>1.07103014902943</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017048050727413</v>
+        <v>1.063137742571736</v>
       </c>
       <c r="D8">
-        <v>1.032606319865975</v>
+        <v>1.062318634272098</v>
       </c>
       <c r="E8">
-        <v>1.029677899234791</v>
+        <v>1.067702474258146</v>
       </c>
       <c r="F8">
-        <v>1.038463018510343</v>
+        <v>1.076358609821496</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047579098487911</v>
+        <v>1.041719747038933</v>
       </c>
       <c r="J8">
-        <v>1.03817302381801</v>
+        <v>1.067989716682653</v>
       </c>
       <c r="K8">
-        <v>1.04336201396469</v>
+        <v>1.06497857787031</v>
       </c>
       <c r="L8">
-        <v>1.040470327820778</v>
+        <v>1.070348246184956</v>
       </c>
       <c r="M8">
-        <v>1.049146019001474</v>
+        <v>1.078981917274944</v>
       </c>
       <c r="N8">
-        <v>1.039647348591941</v>
+        <v>1.069506384580475</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9989781522770612</v>
+        <v>1.059642255979609</v>
       </c>
       <c r="D9">
-        <v>1.019096094172679</v>
+        <v>1.059677991081016</v>
       </c>
       <c r="E9">
-        <v>1.014442119405112</v>
+        <v>1.064643236755436</v>
       </c>
       <c r="F9">
-        <v>1.022881903761297</v>
+        <v>1.073225597630127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042855875543807</v>
+        <v>1.041010990326281</v>
       </c>
       <c r="J9">
-        <v>1.024567046295638</v>
+        <v>1.065297318782571</v>
       </c>
       <c r="K9">
-        <v>1.031886765984615</v>
+        <v>1.062765214767107</v>
       </c>
       <c r="L9">
-        <v>1.027305149657912</v>
+        <v>1.06771512303275</v>
       </c>
       <c r="M9">
-        <v>1.035614334662647</v>
+        <v>1.076271338325263</v>
       </c>
       <c r="N9">
-        <v>1.026022049020861</v>
+        <v>1.066810163166552</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9860220092305962</v>
+        <v>1.057306172573146</v>
       </c>
       <c r="D10">
-        <v>1.009436509723769</v>
+        <v>1.05791154930505</v>
       </c>
       <c r="E10">
-        <v>1.003563652222348</v>
+        <v>1.062599810819179</v>
       </c>
       <c r="F10">
-        <v>1.011760661300538</v>
+        <v>1.071133032723813</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039407619147344</v>
+        <v>1.040528869642467</v>
       </c>
       <c r="J10">
-        <v>1.014801401169096</v>
+        <v>1.063494607441621</v>
       </c>
       <c r="K10">
-        <v>1.0236374499884</v>
+        <v>1.061280644816538</v>
       </c>
       <c r="L10">
-        <v>1.017868860555083</v>
+        <v>1.065952987975276</v>
       </c>
       <c r="M10">
-        <v>1.025920771155192</v>
+        <v>1.074457629074257</v>
       </c>
       <c r="N10">
-        <v>1.016242535558104</v>
+        <v>1.065004891768724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801594447824394</v>
+        <v>1.056293166249616</v>
       </c>
       <c r="D11">
-        <v>1.005074529838957</v>
+        <v>1.057145179032417</v>
       </c>
       <c r="E11">
-        <v>0.9986540948327283</v>
+        <v>1.061713985001914</v>
       </c>
       <c r="F11">
-        <v>1.00674264896647</v>
+        <v>1.070225939602622</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037833906991874</v>
+        <v>1.040317805754631</v>
       </c>
       <c r="J11">
-        <v>1.010381558797691</v>
+        <v>1.062712103009806</v>
       </c>
       <c r="K11">
-        <v>1.019901378292176</v>
+        <v>1.060635624151006</v>
       </c>
       <c r="L11">
-        <v>1.013601437666517</v>
+        <v>1.065188308915976</v>
       </c>
       <c r="M11">
-        <v>1.021538519259288</v>
+        <v>1.073670632879951</v>
       </c>
       <c r="N11">
-        <v>1.011816416503568</v>
+        <v>1.064221276090862</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9779402843384817</v>
+        <v>1.055916662358127</v>
       </c>
       <c r="D12">
-        <v>1.00342495988154</v>
+        <v>1.056860286379335</v>
       </c>
       <c r="E12">
-        <v>0.9967978074216843</v>
+        <v>1.061384792447529</v>
       </c>
       <c r="F12">
-        <v>1.004845542554667</v>
+        <v>1.069888848947024</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037236314782813</v>
+        <v>1.040239059571763</v>
       </c>
       <c r="J12">
-        <v>1.008708509187709</v>
+        <v>1.062421152068932</v>
       </c>
       <c r="K12">
-        <v>1.018486835919863</v>
+        <v>1.060395700841736</v>
       </c>
       <c r="L12">
-        <v>1.011986614607735</v>
+        <v>1.064904017858564</v>
       </c>
       <c r="M12">
-        <v>1.019880494708128</v>
+        <v>1.073378054478548</v>
       </c>
       <c r="N12">
-        <v>1.010140990971239</v>
+        <v>1.063929911966279</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9784182448719043</v>
+        <v>1.055997434176104</v>
       </c>
       <c r="D13">
-        <v>1.003780167569905</v>
+        <v>1.056921407244016</v>
       </c>
       <c r="E13">
-        <v>0.9971975131818231</v>
+        <v>1.06145541258481</v>
       </c>
       <c r="F13">
-        <v>1.005254028866283</v>
+        <v>1.069961163185086</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037365107019572</v>
+        <v>1.040255966655607</v>
       </c>
       <c r="J13">
-        <v>1.009068846678259</v>
+        <v>1.06248357542765</v>
       </c>
       <c r="K13">
-        <v>1.018791510298769</v>
+        <v>1.060447180390228</v>
       </c>
       <c r="L13">
-        <v>1.012334386972594</v>
+        <v>1.064965010890685</v>
       </c>
       <c r="M13">
-        <v>1.020237559359215</v>
+        <v>1.073440825072929</v>
       </c>
       <c r="N13">
-        <v>1.010501840182357</v>
+        <v>1.063992423973326</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799768783231086</v>
+        <v>1.056262049022196</v>
       </c>
       <c r="D14">
-        <v>1.004938789261584</v>
+        <v>1.05712163440866</v>
       </c>
       <c r="E14">
-        <v>0.998501336893802</v>
+        <v>1.061686777087535</v>
       </c>
       <c r="F14">
-        <v>1.006586528014596</v>
+        <v>1.070198078797731</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037784781797336</v>
+        <v>1.040311303672807</v>
       </c>
       <c r="J14">
-        <v>1.010243919140046</v>
+        <v>1.062688058944049</v>
       </c>
       <c r="K14">
-        <v>1.019785011879055</v>
+        <v>1.060615798853778</v>
       </c>
       <c r="L14">
-        <v>1.013468577300722</v>
+        <v>1.065164814565821</v>
       </c>
       <c r="M14">
-        <v>1.021402099249747</v>
+        <v>1.073646453449761</v>
       </c>
       <c r="N14">
-        <v>1.011678581381822</v>
+        <v>1.064197197879774</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9809315829297964</v>
+        <v>1.05642505648213</v>
       </c>
       <c r="D15">
-        <v>1.00564869015269</v>
+        <v>1.057244970534024</v>
       </c>
       <c r="E15">
-        <v>0.9993002500127913</v>
+        <v>1.061829307361001</v>
       </c>
       <c r="F15">
-        <v>1.007403037200388</v>
+        <v>1.070344029494678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038041598592687</v>
+        <v>1.040345352515204</v>
       </c>
       <c r="J15">
-        <v>1.010963686325831</v>
+        <v>1.062814008863874</v>
       </c>
       <c r="K15">
-        <v>1.020393520906232</v>
+        <v>1.060719645869813</v>
       </c>
       <c r="L15">
-        <v>1.014163373599682</v>
+        <v>1.065287886225752</v>
       </c>
       <c r="M15">
-        <v>1.022115521111899</v>
+        <v>1.073773114196776</v>
       </c>
       <c r="N15">
-        <v>1.012399370719569</v>
+        <v>1.064323326662932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9864054712327458</v>
+        <v>1.057373370892355</v>
       </c>
       <c r="D16">
-        <v>1.009722024180136</v>
+        <v>1.057962378983943</v>
       </c>
       <c r="E16">
-        <v>1.003885061806018</v>
+        <v>1.062658578408304</v>
       </c>
       <c r="F16">
-        <v>1.012089195702778</v>
+        <v>1.071193211967866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039510285858593</v>
+        <v>1.040542828599373</v>
       </c>
       <c r="J16">
-        <v>1.015090488385052</v>
+        <v>1.063546498775422</v>
       </c>
       <c r="K16">
-        <v>1.023881766667648</v>
+        <v>1.061323406139063</v>
       </c>
       <c r="L16">
-        <v>1.018148050143082</v>
+        <v>1.066003701712233</v>
       </c>
       <c r="M16">
-        <v>1.026207506529079</v>
+        <v>1.074509824238914</v>
       </c>
       <c r="N16">
-        <v>1.016532033311065</v>
+        <v>1.065056856794172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9897690954288677</v>
+        <v>1.057967825224957</v>
       </c>
       <c r="D17">
-        <v>1.01222751063717</v>
+        <v>1.058411988198012</v>
       </c>
       <c r="E17">
-        <v>1.006705853039932</v>
+        <v>1.063178484012918</v>
       </c>
       <c r="F17">
-        <v>1.014972644421217</v>
+        <v>1.071725610206827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040409351348224</v>
+        <v>1.040666082473911</v>
       </c>
       <c r="J17">
-        <v>1.017626190001225</v>
+        <v>1.064005452676756</v>
       </c>
       <c r="K17">
-        <v>1.026024490975654</v>
+        <v>1.061701538899824</v>
       </c>
       <c r="L17">
-        <v>1.020597317172746</v>
+        <v>1.066452264857682</v>
       </c>
       <c r="M17">
-        <v>1.028723144980621</v>
+        <v>1.074971497961776</v>
       </c>
       <c r="N17">
-        <v>1.019071335914382</v>
+        <v>1.065516462462688</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.991706948162465</v>
+        <v>1.058314419390383</v>
       </c>
       <c r="D18">
-        <v>1.013671793906829</v>
+        <v>1.058674094278099</v>
       </c>
       <c r="E18">
-        <v>1.008332164348923</v>
+        <v>1.063481639208103</v>
       </c>
       <c r="F18">
-        <v>1.01663518374623</v>
+        <v>1.072036053128564</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040926053996288</v>
+        <v>1.040737752339195</v>
       </c>
       <c r="J18">
-        <v>1.019086959949381</v>
+        <v>1.064272968001569</v>
       </c>
       <c r="K18">
-        <v>1.027258634816365</v>
+        <v>1.061921886149448</v>
       </c>
       <c r="L18">
-        <v>1.022008607185665</v>
+        <v>1.06671374406588</v>
       </c>
       <c r="M18">
-        <v>1.030172820075828</v>
+        <v>1.07524062577867</v>
       </c>
       <c r="N18">
-        <v>1.020534180323418</v>
+        <v>1.065784357689947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9923637216606581</v>
+        <v>1.058432575366763</v>
       </c>
       <c r="D19">
-        <v>1.014161420545279</v>
+        <v>1.058763441506365</v>
       </c>
       <c r="E19">
-        <v>1.008883548174526</v>
+        <v>1.063584991026755</v>
       </c>
       <c r="F19">
-        <v>1.017198867240616</v>
+        <v>1.072141890040848</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041100955588019</v>
+        <v>1.040762152302536</v>
       </c>
       <c r="J19">
-        <v>1.019582020633419</v>
+        <v>1.064364152654296</v>
       </c>
       <c r="K19">
-        <v>1.027676848892784</v>
+        <v>1.061996983183155</v>
       </c>
       <c r="L19">
-        <v>1.022486951347293</v>
+        <v>1.066802874726898</v>
       </c>
       <c r="M19">
-        <v>1.030664197860898</v>
+        <v>1.075332364660077</v>
       </c>
       <c r="N19">
-        <v>1.02102994405041</v>
+        <v>1.06587567183534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9894107269989003</v>
+        <v>1.05790406054124</v>
       </c>
       <c r="D20">
-        <v>1.01196048329663</v>
+        <v>1.058363764248891</v>
       </c>
       <c r="E20">
-        <v>1.006405193719317</v>
+        <v>1.063122713131995</v>
       </c>
       <c r="F20">
-        <v>1.014665295776533</v>
+        <v>1.07166849888273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040313693706146</v>
+        <v>1.040652881478356</v>
       </c>
       <c r="J20">
-        <v>1.017356039805408</v>
+        <v>1.063956230414713</v>
       </c>
       <c r="K20">
-        <v>1.025796232543834</v>
+        <v>1.06166099071108</v>
       </c>
       <c r="L20">
-        <v>1.020336342849093</v>
+        <v>1.066404154874713</v>
       </c>
       <c r="M20">
-        <v>1.028455083818434</v>
+        <v>1.074921981189912</v>
       </c>
       <c r="N20">
-        <v>1.018800802074301</v>
+        <v>1.065467170299387</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9795190777904974</v>
+        <v>1.056184132909335</v>
       </c>
       <c r="D21">
-        <v>1.004598434645833</v>
+        <v>1.057062678849176</v>
       </c>
       <c r="E21">
-        <v>0.9981183186635156</v>
+        <v>1.061618650400233</v>
       </c>
       <c r="F21">
-        <v>1.006195080608983</v>
+        <v>1.070128317404966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037661566274183</v>
+        <v>1.040295017911566</v>
       </c>
       <c r="J21">
-        <v>1.009898776730996</v>
+        <v>1.062627851805763</v>
       </c>
       <c r="K21">
-        <v>1.019493208852843</v>
+        <v>1.060566154173584</v>
       </c>
       <c r="L21">
-        <v>1.01313542798134</v>
+        <v>1.065105984451738</v>
       </c>
       <c r="M21">
-        <v>1.021060028181787</v>
+        <v>1.073585908044506</v>
       </c>
       <c r="N21">
-        <v>1.011332948830963</v>
+        <v>1.064136905240446</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9730572992098488</v>
+        <v>1.055101421689689</v>
       </c>
       <c r="D22">
-        <v>0.9997984720356571</v>
+        <v>1.056243309712649</v>
       </c>
       <c r="E22">
-        <v>0.9927174478872829</v>
+        <v>1.060672072854941</v>
       </c>
       <c r="F22">
-        <v>1.000675828050274</v>
+        <v>1.069159039373735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035918036700943</v>
+        <v>1.040068002573877</v>
       </c>
       <c r="J22">
-        <v>1.005027335050001</v>
+        <v>1.061790943864421</v>
       </c>
       <c r="K22">
-        <v>1.015373922291783</v>
+        <v>1.059875852769685</v>
       </c>
       <c r="L22">
-        <v>1.008434567330315</v>
+        <v>1.064288293945254</v>
       </c>
       <c r="M22">
-        <v>1.016233908533382</v>
+        <v>1.072744399517408</v>
       </c>
       <c r="N22">
-        <v>1.006454589144018</v>
+        <v>1.063298808793832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9765071316192868</v>
+        <v>1.055675515575282</v>
       </c>
       <c r="D23">
-        <v>1.002360128558306</v>
+        <v>1.056677800029796</v>
       </c>
       <c r="E23">
-        <v>0.9955996284001755</v>
+        <v>1.061173960076737</v>
       </c>
       <c r="F23">
-        <v>1.003621071675987</v>
+        <v>1.069672959721348</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036849866727078</v>
+        <v>1.040188539027556</v>
       </c>
       <c r="J23">
-        <v>1.007628057342392</v>
+        <v>1.062234767997465</v>
       </c>
       <c r="K23">
-        <v>1.017573244223481</v>
+        <v>1.060241979483249</v>
       </c>
       <c r="L23">
-        <v>1.010943918672815</v>
+        <v>1.064721909169626</v>
       </c>
       <c r="M23">
-        <v>1.018809977109709</v>
+        <v>1.073190639898294</v>
       </c>
       <c r="N23">
-        <v>1.009059004760372</v>
+        <v>1.063743263208052</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9895727324516399</v>
+        <v>1.057932873493054</v>
       </c>
       <c r="D24">
-        <v>1.012081194200569</v>
+        <v>1.058385555019054</v>
       </c>
       <c r="E24">
-        <v>1.006541107263358</v>
+        <v>1.063147913892364</v>
       </c>
       <c r="F24">
-        <v>1.014804232921636</v>
+        <v>1.071694305328646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040356941024651</v>
+        <v>1.040658847126211</v>
       </c>
       <c r="J24">
-        <v>1.017478165293394</v>
+        <v>1.063978472407254</v>
       </c>
       <c r="K24">
-        <v>1.025899420972733</v>
+        <v>1.061679313345041</v>
       </c>
       <c r="L24">
-        <v>1.020454319273469</v>
+        <v>1.066425894200099</v>
       </c>
       <c r="M24">
-        <v>1.02857626349198</v>
+        <v>1.074944356178244</v>
       </c>
       <c r="N24">
-        <v>1.018923100994487</v>
+        <v>1.065489443878109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003798725432104</v>
+        <v>1.060546908345534</v>
       </c>
       <c r="D25">
-        <v>1.022696351913044</v>
+        <v>1.060361702393356</v>
       </c>
       <c r="E25">
-        <v>1.018499467317173</v>
+        <v>1.065434794558297</v>
       </c>
       <c r="F25">
-        <v>1.027030630493182</v>
+        <v>1.074036220166927</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044126784138951</v>
+        <v>1.041195909520639</v>
       </c>
       <c r="J25">
-        <v>1.028198920138096</v>
+        <v>1.065994717912388</v>
       </c>
       <c r="K25">
-        <v>1.034952264431342</v>
+        <v>1.063338990484928</v>
       </c>
       <c r="L25">
-        <v>1.030817233526341</v>
+        <v>1.068397012757731</v>
       </c>
       <c r="M25">
-        <v>1.0392233371799</v>
+        <v>1.076973241177083</v>
       </c>
       <c r="N25">
-        <v>1.029659080540757</v>
+        <v>1.067508552683126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062627701646876</v>
+        <v>1.01450224431521</v>
       </c>
       <c r="D2">
-        <v>1.061933525267731</v>
+        <v>1.030700653383715</v>
       </c>
       <c r="E2">
-        <v>1.067255964106053</v>
+        <v>1.027526982282251</v>
       </c>
       <c r="F2">
-        <v>1.075901316290951</v>
+        <v>1.036262993268362</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041617312011347</v>
+        <v>1.046920836767499</v>
       </c>
       <c r="J2">
-        <v>1.067597248363691</v>
+        <v>1.036257681846665</v>
       </c>
       <c r="K2">
-        <v>1.06465624103064</v>
+        <v>1.041748227436663</v>
       </c>
       <c r="L2">
-        <v>1.069964315849649</v>
+        <v>1.038615693778731</v>
       </c>
       <c r="M2">
-        <v>1.07858666363622</v>
+        <v>1.047239227084243</v>
       </c>
       <c r="N2">
-        <v>1.069113358911484</v>
+        <v>1.03772928661534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.064136275271315</v>
+        <v>1.021947499747156</v>
       </c>
       <c r="D3">
-        <v>1.063072374536812</v>
+        <v>1.036275547940559</v>
       </c>
       <c r="E3">
-        <v>1.068576752876452</v>
+        <v>1.033821386953238</v>
       </c>
       <c r="F3">
-        <v>1.077254018091754</v>
+        <v>1.042701421972645</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041919283356742</v>
+        <v>1.048838356211135</v>
       </c>
       <c r="J3">
-        <v>1.068757670267288</v>
+        <v>1.041857223938025</v>
       </c>
       <c r="K3">
-        <v>1.065608992134299</v>
+        <v>1.046464398055429</v>
       </c>
       <c r="L3">
-        <v>1.071099597479117</v>
+        <v>1.044039059967026</v>
       </c>
       <c r="M3">
-        <v>1.079755458041245</v>
+        <v>1.052815597416098</v>
       </c>
       <c r="N3">
-        <v>1.070275428747286</v>
+        <v>1.043336780698711</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065111420953603</v>
+        <v>1.026627352147114</v>
       </c>
       <c r="D4">
-        <v>1.063808188716142</v>
+        <v>1.039782216199822</v>
       </c>
       <c r="E4">
-        <v>1.069430712599303</v>
+        <v>1.037784063314323</v>
       </c>
       <c r="F4">
-        <v>1.078128636270939</v>
+        <v>1.046755249828261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042112836090472</v>
+        <v>1.050031162798484</v>
       </c>
       <c r="J4">
-        <v>1.069507113538781</v>
+        <v>1.045373610754678</v>
       </c>
       <c r="K4">
-        <v>1.066223805368483</v>
+        <v>1.049423091166974</v>
       </c>
       <c r="L4">
-        <v>1.07183297391463</v>
+        <v>1.04744689109998</v>
       </c>
       <c r="M4">
-        <v>1.080510531494961</v>
+        <v>1.056320320257255</v>
       </c>
       <c r="N4">
-        <v>1.071025936314186</v>
+        <v>1.046858161187978</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.065521138650251</v>
+        <v>1.028563589131939</v>
       </c>
       <c r="D5">
-        <v>1.064117266121378</v>
+        <v>1.041233535357481</v>
       </c>
       <c r="E5">
-        <v>1.069789559413892</v>
+        <v>1.039424971574392</v>
       </c>
       <c r="F5">
-        <v>1.078496169956237</v>
+        <v>1.048434008595689</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042193765800931</v>
+        <v>1.050521611196963</v>
       </c>
       <c r="J5">
-        <v>1.069821842388204</v>
+        <v>1.046827612201596</v>
       </c>
       <c r="K5">
-        <v>1.066481874192876</v>
+        <v>1.050645750463625</v>
       </c>
       <c r="L5">
-        <v>1.072140996001857</v>
+        <v>1.048856492428148</v>
       </c>
       <c r="M5">
-        <v>1.080827677869135</v>
+        <v>1.057770168575042</v>
       </c>
       <c r="N5">
-        <v>1.071341112114675</v>
+        <v>1.048314227483728</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065589918544795</v>
+        <v>1.028886913461488</v>
       </c>
       <c r="D6">
-        <v>1.064169146508781</v>
+        <v>1.0414759098387</v>
       </c>
       <c r="E6">
-        <v>1.069849802252202</v>
+        <v>1.039699059538217</v>
       </c>
       <c r="F6">
-        <v>1.078557871478869</v>
+        <v>1.048714424826057</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042207328500662</v>
+        <v>1.05060332722791</v>
       </c>
       <c r="J6">
-        <v>1.0698746671122</v>
+        <v>1.047070357162554</v>
       </c>
       <c r="K6">
-        <v>1.066525181811914</v>
+        <v>1.05084982858309</v>
       </c>
       <c r="L6">
-        <v>1.072192697421834</v>
+        <v>1.049091853117503</v>
       </c>
       <c r="M6">
-        <v>1.080880911464336</v>
+        <v>1.058012258936181</v>
       </c>
       <c r="N6">
-        <v>1.071394011855839</v>
+        <v>1.048557317170374</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065116896531258</v>
+        <v>1.026653344457558</v>
       </c>
       <c r="D7">
-        <v>1.063812319635998</v>
+        <v>1.039801697180676</v>
       </c>
       <c r="E7">
-        <v>1.069435508142456</v>
+        <v>1.037806085693387</v>
       </c>
       <c r="F7">
-        <v>1.078133547880408</v>
+        <v>1.046777779788234</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042113919203919</v>
+        <v>1.050037758847076</v>
       </c>
       <c r="J7">
-        <v>1.069511320279969</v>
+        <v>1.045393132980592</v>
       </c>
       <c r="K7">
-        <v>1.06622725525871</v>
+        <v>1.04943951023235</v>
       </c>
       <c r="L7">
-        <v>1.071837090852523</v>
+        <v>1.047465815273166</v>
       </c>
       <c r="M7">
-        <v>1.080514770340801</v>
+        <v>1.056339784098669</v>
       </c>
       <c r="N7">
-        <v>1.07103014902943</v>
+        <v>1.046877711137693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.063137742571736</v>
+        <v>1.017048050727414</v>
       </c>
       <c r="D8">
-        <v>1.062318634272098</v>
+        <v>1.032606319865976</v>
       </c>
       <c r="E8">
-        <v>1.067702474258146</v>
+        <v>1.029677899234791</v>
       </c>
       <c r="F8">
-        <v>1.076358609821496</v>
+        <v>1.038463018510344</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041719747038933</v>
+        <v>1.047579098487911</v>
       </c>
       <c r="J8">
-        <v>1.067989716682653</v>
+        <v>1.03817302381801</v>
       </c>
       <c r="K8">
-        <v>1.06497857787031</v>
+        <v>1.043362013964691</v>
       </c>
       <c r="L8">
-        <v>1.070348246184956</v>
+        <v>1.040470327820779</v>
       </c>
       <c r="M8">
-        <v>1.078981917274944</v>
+        <v>1.049146019001475</v>
       </c>
       <c r="N8">
-        <v>1.069506384580475</v>
+        <v>1.039647348591942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.059642255979609</v>
+        <v>0.9989781522770596</v>
       </c>
       <c r="D9">
-        <v>1.059677991081016</v>
+        <v>1.019096094172677</v>
       </c>
       <c r="E9">
-        <v>1.064643236755436</v>
+        <v>1.01444211940511</v>
       </c>
       <c r="F9">
-        <v>1.073225597630127</v>
+        <v>1.022881903761295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041010990326281</v>
+        <v>1.042855875543806</v>
       </c>
       <c r="J9">
-        <v>1.065297318782571</v>
+        <v>1.024567046295636</v>
       </c>
       <c r="K9">
-        <v>1.062765214767107</v>
+        <v>1.031886765984613</v>
       </c>
       <c r="L9">
-        <v>1.06771512303275</v>
+        <v>1.02730514965791</v>
       </c>
       <c r="M9">
-        <v>1.076271338325263</v>
+        <v>1.035614334662645</v>
       </c>
       <c r="N9">
-        <v>1.066810163166552</v>
+        <v>1.026022049020859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057306172573146</v>
+        <v>0.9860220092305965</v>
       </c>
       <c r="D10">
-        <v>1.05791154930505</v>
+        <v>1.009436509723769</v>
       </c>
       <c r="E10">
-        <v>1.062599810819179</v>
+        <v>1.003563652222348</v>
       </c>
       <c r="F10">
-        <v>1.071133032723813</v>
+        <v>1.011760661300538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040528869642467</v>
+        <v>1.039407619147344</v>
       </c>
       <c r="J10">
-        <v>1.063494607441621</v>
+        <v>1.014801401169096</v>
       </c>
       <c r="K10">
-        <v>1.061280644816538</v>
+        <v>1.0236374499884</v>
       </c>
       <c r="L10">
-        <v>1.065952987975276</v>
+        <v>1.017868860555083</v>
       </c>
       <c r="M10">
-        <v>1.074457629074257</v>
+        <v>1.025920771155192</v>
       </c>
       <c r="N10">
-        <v>1.065004891768724</v>
+        <v>1.016242535558104</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056293166249616</v>
+        <v>0.9801594447824401</v>
       </c>
       <c r="D11">
-        <v>1.057145179032417</v>
+        <v>1.005074529838958</v>
       </c>
       <c r="E11">
-        <v>1.061713985001914</v>
+        <v>0.9986540948327293</v>
       </c>
       <c r="F11">
-        <v>1.070225939602622</v>
+        <v>1.006742648966471</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040317805754631</v>
+        <v>1.037833906991874</v>
       </c>
       <c r="J11">
-        <v>1.062712103009806</v>
+        <v>1.010381558797692</v>
       </c>
       <c r="K11">
-        <v>1.060635624151006</v>
+        <v>1.019901378292176</v>
       </c>
       <c r="L11">
-        <v>1.065188308915976</v>
+        <v>1.013601437666518</v>
       </c>
       <c r="M11">
-        <v>1.073670632879951</v>
+        <v>1.021538519259289</v>
       </c>
       <c r="N11">
-        <v>1.064221276090862</v>
+        <v>1.011816416503569</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.055916662358127</v>
+        <v>0.9779402843384812</v>
       </c>
       <c r="D12">
-        <v>1.056860286379335</v>
+        <v>1.00342495988154</v>
       </c>
       <c r="E12">
-        <v>1.061384792447529</v>
+        <v>0.9967978074216838</v>
       </c>
       <c r="F12">
-        <v>1.069888848947024</v>
+        <v>1.004845542554667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040239059571763</v>
+        <v>1.037236314782813</v>
       </c>
       <c r="J12">
-        <v>1.062421152068932</v>
+        <v>1.008708509187709</v>
       </c>
       <c r="K12">
-        <v>1.060395700841736</v>
+        <v>1.018486835919863</v>
       </c>
       <c r="L12">
-        <v>1.064904017858564</v>
+        <v>1.011986614607734</v>
       </c>
       <c r="M12">
-        <v>1.073378054478548</v>
+        <v>1.019880494708128</v>
       </c>
       <c r="N12">
-        <v>1.063929911966279</v>
+        <v>1.010140990971239</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.055997434176104</v>
+        <v>0.9784182448719032</v>
       </c>
       <c r="D13">
-        <v>1.056921407244016</v>
+        <v>1.003780167569904</v>
       </c>
       <c r="E13">
-        <v>1.06145541258481</v>
+        <v>0.9971975131818219</v>
       </c>
       <c r="F13">
-        <v>1.069961163185086</v>
+        <v>1.005254028866283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040255966655607</v>
+        <v>1.037365107019571</v>
       </c>
       <c r="J13">
-        <v>1.06248357542765</v>
+        <v>1.009068846678258</v>
       </c>
       <c r="K13">
-        <v>1.060447180390228</v>
+        <v>1.018791510298768</v>
       </c>
       <c r="L13">
-        <v>1.064965010890685</v>
+        <v>1.012334386972593</v>
       </c>
       <c r="M13">
-        <v>1.073440825072929</v>
+        <v>1.020237559359214</v>
       </c>
       <c r="N13">
-        <v>1.063992423973326</v>
+        <v>1.010501840182356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056262049022196</v>
+        <v>0.9799768783231075</v>
       </c>
       <c r="D14">
-        <v>1.05712163440866</v>
+        <v>1.004938789261584</v>
       </c>
       <c r="E14">
-        <v>1.061686777087535</v>
+        <v>0.9985013368938008</v>
       </c>
       <c r="F14">
-        <v>1.070198078797731</v>
+        <v>1.006586528014595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040311303672807</v>
+        <v>1.037784781797336</v>
       </c>
       <c r="J14">
-        <v>1.062688058944049</v>
+        <v>1.010243919140045</v>
       </c>
       <c r="K14">
-        <v>1.060615798853778</v>
+        <v>1.019785011879055</v>
       </c>
       <c r="L14">
-        <v>1.065164814565821</v>
+        <v>1.013468577300721</v>
       </c>
       <c r="M14">
-        <v>1.073646453449761</v>
+        <v>1.021402099249747</v>
       </c>
       <c r="N14">
-        <v>1.064197197879774</v>
+        <v>1.011678581381821</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05642505648213</v>
+        <v>0.9809315829297967</v>
       </c>
       <c r="D15">
-        <v>1.057244970534024</v>
+        <v>1.00564869015269</v>
       </c>
       <c r="E15">
-        <v>1.061829307361001</v>
+        <v>0.9993002500127917</v>
       </c>
       <c r="F15">
-        <v>1.070344029494678</v>
+        <v>1.007403037200389</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040345352515204</v>
+        <v>1.038041598592687</v>
       </c>
       <c r="J15">
-        <v>1.062814008863874</v>
+        <v>1.010963686325831</v>
       </c>
       <c r="K15">
-        <v>1.060719645869813</v>
+        <v>1.020393520906232</v>
       </c>
       <c r="L15">
-        <v>1.065287886225752</v>
+        <v>1.014163373599682</v>
       </c>
       <c r="M15">
-        <v>1.073773114196776</v>
+        <v>1.0221155211119</v>
       </c>
       <c r="N15">
-        <v>1.064323326662932</v>
+        <v>1.01239937071957</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057373370892355</v>
+        <v>0.986405471232748</v>
       </c>
       <c r="D16">
-        <v>1.057962378983943</v>
+        <v>1.009722024180138</v>
       </c>
       <c r="E16">
-        <v>1.062658578408304</v>
+        <v>1.00388506180602</v>
       </c>
       <c r="F16">
-        <v>1.071193211967866</v>
+        <v>1.01208919570278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040542828599373</v>
+        <v>1.039510285858594</v>
       </c>
       <c r="J16">
-        <v>1.063546498775422</v>
+        <v>1.015090488385054</v>
       </c>
       <c r="K16">
-        <v>1.061323406139063</v>
+        <v>1.02388176666765</v>
       </c>
       <c r="L16">
-        <v>1.066003701712233</v>
+        <v>1.018148050143084</v>
       </c>
       <c r="M16">
-        <v>1.074509824238914</v>
+        <v>1.026207506529081</v>
       </c>
       <c r="N16">
-        <v>1.065056856794172</v>
+        <v>1.016532033311067</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.057967825224957</v>
+        <v>0.9897690954288682</v>
       </c>
       <c r="D17">
-        <v>1.058411988198012</v>
+        <v>1.01222751063717</v>
       </c>
       <c r="E17">
-        <v>1.063178484012918</v>
+        <v>1.006705853039933</v>
       </c>
       <c r="F17">
-        <v>1.071725610206827</v>
+        <v>1.014972644421217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040666082473911</v>
+        <v>1.040409351348224</v>
       </c>
       <c r="J17">
-        <v>1.064005452676756</v>
+        <v>1.017626190001225</v>
       </c>
       <c r="K17">
-        <v>1.061701538899824</v>
+        <v>1.026024490975654</v>
       </c>
       <c r="L17">
-        <v>1.066452264857682</v>
+        <v>1.020597317172747</v>
       </c>
       <c r="M17">
-        <v>1.074971497961776</v>
+        <v>1.028723144980621</v>
       </c>
       <c r="N17">
-        <v>1.065516462462688</v>
+        <v>1.019071335914383</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058314419390383</v>
+        <v>0.9917069481624671</v>
       </c>
       <c r="D18">
-        <v>1.058674094278099</v>
+        <v>1.013671793906831</v>
       </c>
       <c r="E18">
-        <v>1.063481639208103</v>
+        <v>1.008332164348924</v>
       </c>
       <c r="F18">
-        <v>1.072036053128564</v>
+        <v>1.016635183746232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040737752339195</v>
+        <v>1.040926053996289</v>
       </c>
       <c r="J18">
-        <v>1.064272968001569</v>
+        <v>1.019086959949383</v>
       </c>
       <c r="K18">
-        <v>1.061921886149448</v>
+        <v>1.027258634816367</v>
       </c>
       <c r="L18">
-        <v>1.06671374406588</v>
+        <v>1.022008607185667</v>
       </c>
       <c r="M18">
-        <v>1.07524062577867</v>
+        <v>1.03017282007583</v>
       </c>
       <c r="N18">
-        <v>1.065784357689947</v>
+        <v>1.020534180323419</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058432575366763</v>
+        <v>0.9923637216606583</v>
       </c>
       <c r="D19">
-        <v>1.058763441506365</v>
+        <v>1.014161420545279</v>
       </c>
       <c r="E19">
-        <v>1.063584991026755</v>
+        <v>1.008883548174526</v>
       </c>
       <c r="F19">
-        <v>1.072141890040848</v>
+        <v>1.017198867240616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040762152302536</v>
+        <v>1.041100955588019</v>
       </c>
       <c r="J19">
-        <v>1.064364152654296</v>
+        <v>1.019582020633419</v>
       </c>
       <c r="K19">
-        <v>1.061996983183155</v>
+        <v>1.027676848892784</v>
       </c>
       <c r="L19">
-        <v>1.066802874726898</v>
+        <v>1.022486951347293</v>
       </c>
       <c r="M19">
-        <v>1.075332364660077</v>
+        <v>1.030664197860898</v>
       </c>
       <c r="N19">
-        <v>1.06587567183534</v>
+        <v>1.02102994405041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05790406054124</v>
+        <v>0.9894107269989005</v>
       </c>
       <c r="D20">
-        <v>1.058363764248891</v>
+        <v>1.01196048329663</v>
       </c>
       <c r="E20">
-        <v>1.063122713131995</v>
+        <v>1.006405193719317</v>
       </c>
       <c r="F20">
-        <v>1.07166849888273</v>
+        <v>1.014665295776534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040652881478356</v>
+        <v>1.040313693706146</v>
       </c>
       <c r="J20">
-        <v>1.063956230414713</v>
+        <v>1.017356039805409</v>
       </c>
       <c r="K20">
-        <v>1.06166099071108</v>
+        <v>1.025796232543835</v>
       </c>
       <c r="L20">
-        <v>1.066404154874713</v>
+        <v>1.020336342849093</v>
       </c>
       <c r="M20">
-        <v>1.074921981189912</v>
+        <v>1.028455083818434</v>
       </c>
       <c r="N20">
-        <v>1.065467170299387</v>
+        <v>1.018800802074301</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056184132909335</v>
+        <v>0.979519077790497</v>
       </c>
       <c r="D21">
-        <v>1.057062678849176</v>
+        <v>1.004598434645833</v>
       </c>
       <c r="E21">
-        <v>1.061618650400233</v>
+        <v>0.9981183186635147</v>
       </c>
       <c r="F21">
-        <v>1.070128317404966</v>
+        <v>1.006195080608982</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040295017911566</v>
+        <v>1.037661566274183</v>
       </c>
       <c r="J21">
-        <v>1.062627851805763</v>
+        <v>1.009898776730996</v>
       </c>
       <c r="K21">
-        <v>1.060566154173584</v>
+        <v>1.019493208852843</v>
       </c>
       <c r="L21">
-        <v>1.065105984451738</v>
+        <v>1.01313542798134</v>
       </c>
       <c r="M21">
-        <v>1.073585908044506</v>
+        <v>1.021060028181787</v>
       </c>
       <c r="N21">
-        <v>1.064136905240446</v>
+        <v>1.011332948830963</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.055101421689689</v>
+        <v>0.9730572992098493</v>
       </c>
       <c r="D22">
-        <v>1.056243309712649</v>
+        <v>0.9997984720356574</v>
       </c>
       <c r="E22">
-        <v>1.060672072854941</v>
+        <v>0.9927174478872833</v>
       </c>
       <c r="F22">
-        <v>1.069159039373735</v>
+        <v>1.000675828050274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040068002573877</v>
+        <v>1.035918036700943</v>
       </c>
       <c r="J22">
-        <v>1.061790943864421</v>
+        <v>1.005027335050001</v>
       </c>
       <c r="K22">
-        <v>1.059875852769685</v>
+        <v>1.015373922291784</v>
       </c>
       <c r="L22">
-        <v>1.064288293945254</v>
+        <v>1.008434567330316</v>
       </c>
       <c r="M22">
-        <v>1.072744399517408</v>
+        <v>1.016233908533382</v>
       </c>
       <c r="N22">
-        <v>1.063298808793832</v>
+        <v>1.006454589144018</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.055675515575282</v>
+        <v>0.976507131619286</v>
       </c>
       <c r="D23">
-        <v>1.056677800029796</v>
+        <v>1.002360128558306</v>
       </c>
       <c r="E23">
-        <v>1.061173960076737</v>
+        <v>0.9955996284001749</v>
       </c>
       <c r="F23">
-        <v>1.069672959721348</v>
+        <v>1.003621071675987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040188539027556</v>
+        <v>1.036849866727078</v>
       </c>
       <c r="J23">
-        <v>1.062234767997465</v>
+        <v>1.007628057342391</v>
       </c>
       <c r="K23">
-        <v>1.060241979483249</v>
+        <v>1.01757324422348</v>
       </c>
       <c r="L23">
-        <v>1.064721909169626</v>
+        <v>1.010943918672814</v>
       </c>
       <c r="M23">
-        <v>1.073190639898294</v>
+        <v>1.018809977109709</v>
       </c>
       <c r="N23">
-        <v>1.063743263208052</v>
+        <v>1.009059004760371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.057932873493054</v>
+        <v>0.9895727324516399</v>
       </c>
       <c r="D24">
-        <v>1.058385555019054</v>
+        <v>1.012081194200569</v>
       </c>
       <c r="E24">
-        <v>1.063147913892364</v>
+        <v>1.006541107263358</v>
       </c>
       <c r="F24">
-        <v>1.071694305328646</v>
+        <v>1.014804232921636</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040658847126211</v>
+        <v>1.040356941024651</v>
       </c>
       <c r="J24">
-        <v>1.063978472407254</v>
+        <v>1.017478165293394</v>
       </c>
       <c r="K24">
-        <v>1.061679313345041</v>
+        <v>1.025899420972733</v>
       </c>
       <c r="L24">
-        <v>1.066425894200099</v>
+        <v>1.020454319273468</v>
       </c>
       <c r="M24">
-        <v>1.074944356178244</v>
+        <v>1.02857626349198</v>
       </c>
       <c r="N24">
-        <v>1.065489443878109</v>
+        <v>1.018923100994487</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060546908345534</v>
+        <v>1.003798725432103</v>
       </c>
       <c r="D25">
-        <v>1.060361702393356</v>
+        <v>1.022696351913043</v>
       </c>
       <c r="E25">
-        <v>1.065434794558297</v>
+        <v>1.018499467317171</v>
       </c>
       <c r="F25">
-        <v>1.074036220166927</v>
+        <v>1.02703063049318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041195909520639</v>
+        <v>1.04412678413895</v>
       </c>
       <c r="J25">
-        <v>1.065994717912388</v>
+        <v>1.028198920138094</v>
       </c>
       <c r="K25">
-        <v>1.063338990484928</v>
+        <v>1.03495226443134</v>
       </c>
       <c r="L25">
-        <v>1.068397012757731</v>
+        <v>1.030817233526339</v>
       </c>
       <c r="M25">
-        <v>1.076973241177083</v>
+        <v>1.039223337179899</v>
       </c>
       <c r="N25">
-        <v>1.067508552683126</v>
+        <v>1.029659080540755</v>
       </c>
     </row>
   </sheetData>
